--- a/data/api_auto/uu_api/converter.xlsx
+++ b/data/api_auto/uu_api/converter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29000" windowHeight="13940"/>
+    <workbookView windowWidth="29120" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>case_module</t>
   </si>
@@ -72,6 +72,98 @@
   </si>
   <si>
     <t>wait</t>
+  </si>
+  <si>
+    <t>兑换</t>
+  </si>
+  <si>
+    <t>UU交易兑</t>
+  </si>
+  <si>
+    <t>正常流程</t>
+  </si>
+  <si>
+    <t>获取前置参数</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>/api/forex-setting/convert/v2/queryConvertList?tenant=forex</t>
+  </si>
+  <si>
+    <t>{"authorization":"${token}"}</t>
+  </si>
+  <si>
+    <t>application/json</t>
+  </si>
+  <si>
+    <t>{
+    "coinId":"$.data[?(@.fromCoinSymbol == 'USDT' &amp;&amp; @.toCoinSymbol == 'PHP')].fromCoinId",
+    "convertedCoinId":"$.data[?(@.fromCoinSymbol == 'USDT' &amp;&amp; @.toCoinSymbol == 'PHP')].toCoinId",
+    "convertRate":"$.data[?(@.fromCoinSymbol == 'USDT' &amp;&amp; @.toCoinSymbol == 'PHP')].convertRate",
+    "counterpartyId":"$.data[?(@.fromCoinSymbol == 'USDT' &amp;&amp; @.toCoinSymbol == 'PHP')].userId",
+    "counterpartyUserType":"$.data[?(@.fromCoinSymbol == 'USDT' &amp;&amp; @.toCoinSymbol == 'PHP')].userType",
+    "convertMarketId":"$.data[?(@.fromCoinSymbol == 'USDT' &amp;&amp; @.toCoinSymbol == 'PHP')].convertMarketId",
+    "coinType":"$.data[?(@.fromCoinSymbol == 'USDT' &amp;&amp; @.toCoinSymbol == 'PHP')].coinType",
+    "convertedCoinType":"$.data[?(@.fromCoinSymbol == 'USDT' &amp;&amp; @.toCoinSymbol == 'PHP')].cryptoCoinCount"
+}</t>
+  </si>
+  <si>
+    <t>{"$.success": true}</t>
+  </si>
+  <si>
+    <t>获取配置信息</t>
+  </si>
+  <si>
+    <t>/api/forex-setting/convert/getConvertByFromToCoin?fromCoinId=${coinId}&amp;toCoinId=${convertedCoinId}</t>
+  </si>
+  <si>
+    <t>{"decimalPrecision":"$.data.decimalPrecision"}</t>
+  </si>
+  <si>
+    <t>提交兑换</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>/api/forex-exchange/order/v2/convertAndWithdrawOrderCreate</t>
+  </si>
+  <si>
+    <t>{
+    "convertOrderVO": {
+        "amountCalcBaseOn": "exchangeAmount",
+        "balanceId": ${USDT_ID},
+        "balancePwd": "111111",
+        "coinId": ${coinId},
+        "coinSymbol": "USDT",
+        "coinType": ${coinType},
+        "convertedAmount": "function:converter",
+        "convertedBalanceId": ${PHP_ID},
+        "convertedCoinId": ${convertedCoinId},
+        "convertedCoinSymbol": "PHP",
+        "convertedCoinType": ${convertedCoinType},
+        "convertMarketId": ${convertMarketId},
+        "convertRate": "${convertRate}",
+        "convertRateExtend": "",
+        "counterpartyId": ${counterpartyId},
+        "counterpartyUserType": ${counterpartyUserType},
+        "exchangeAmount": "10",
+        "exchangeType": "convert_forex",
+        "orderType": "convert",
+        "orderTypeNext": "forex"
+    }
+}</t>
+  </si>
+  <si>
+    <t>{"converter_orderid":"$.data.convertOrderId"}</t>
+  </si>
+  <si>
+    <t>获取订单信息</t>
+  </si>
+  <si>
+    <t>/api/forex-exchange/order/v2/getOrderById?orderId=${converter_orderid}</t>
   </si>
 </sst>
 </file>
@@ -1060,22 +1152,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="25.4615384615385" style="2" customWidth="1"/>
     <col min="2" max="2" width="31.2307692307692" style="2" customWidth="1"/>
     <col min="3" max="3" width="20.1538461538462" style="2" customWidth="1"/>
-    <col min="4" max="4" width="42.0769230769231" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.3076923076923" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.69230769230769" style="2" customWidth="1"/>
     <col min="7" max="7" width="68.9038461538462" style="2" customWidth="1"/>
@@ -1136,6 +1228,134 @@
         <v>14</v>
       </c>
     </row>
+    <row r="2" ht="409.5" spans="1:14">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" ht="34" spans="1:14">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" ht="404" spans="1:14">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/data/api_auto/uu_api/converter.xlsx
+++ b/data/api_auto/uu_api/converter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29120" windowHeight="14540"/>
+    <workbookView windowHeight="16760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="52">
   <si>
     <t>case_module</t>
   </si>
@@ -77,7 +77,7 @@
     <t>兑换</t>
   </si>
   <si>
-    <t>UU交易兑</t>
+    <t>UU交易兑USDT兑PHP</t>
   </si>
   <si>
     <t>正常流程</t>
@@ -119,7 +119,7 @@
     <t>/api/forex-setting/convert/getConvertByFromToCoin?fromCoinId=${coinId}&amp;toCoinId=${convertedCoinId}</t>
   </si>
   <si>
-    <t>{"decimalPrecision":"$.data.decimalPrecision"}</t>
+    <t>{"decimalPrecision":"$.data.decimalPrecision","convertRate":"$.data.convertRate"}</t>
   </si>
   <si>
     <t>提交兑换</t>
@@ -135,7 +135,7 @@
     "convertOrderVO": {
         "amountCalcBaseOn": "exchangeAmount",
         "balanceId": ${USDT_ID},
-        "balancePwd": "111111",
+        "balancePwd": "123456",
         "coinId": ${coinId},
         "coinSymbol": "USDT",
         "coinType": ${coinType},
@@ -165,6 +165,168 @@
   <si>
     <t>/api/forex-exchange/order/v2/getOrderById?orderId=${converter_orderid}</t>
   </si>
+  <si>
+    <t>UU交易兑USDT兑TRX</t>
+  </si>
+  <si>
+    <t>{
+    "coinId":"$.data[?(@.fromCoinSymbol == 'USDT' &amp;&amp; @.toCoinSymbol == 'TRX')].fromCoinId",
+    "convertedCoinId":"$.data[?(@.fromCoinSymbol == 'USDT' &amp;&amp; @.toCoinSymbol == 'TRX')].toCoinId",
+    "convertRate":"$.data[?(@.fromCoinSymbol == 'USDT' &amp;&amp; @.toCoinSymbol == 'TRX')].convertRate",
+    "counterpartyId":"$.data[?(@.fromCoinSymbol == 'USDT' &amp;&amp; @.toCoinSymbol == 'TRX')].userId",
+    "counterpartyUserType":"$.data[?(@.fromCoinSymbol == 'USDT' &amp;&amp; @.toCoinSymbol == 'TRX')].userType",
+    "convertMarketId":"$.data[?(@.fromCoinSymbol == 'USDT' &amp;&amp; @.toCoinSymbol == 'TRX')].convertMarketId",
+    "coinType":"$.data[?(@.fromCoinSymbol == 'USDT' &amp;&amp; @.toCoinSymbol == 'TRX')].coinType",
+    "convertedCoinType":"$.data[?(@.fromCoinSymbol == 'USDT' &amp;&amp; @.toCoinSymbol == 'TRX')].cryptoCoinCount"
+}</t>
+  </si>
+  <si>
+    <t>获取提现通道配置信息</t>
+  </si>
+  <si>
+    <t>/api/forex-setting/payment/config/v2/queryPaymentConfigListByLimit?coinId=${convertedCoinId}&amp;paymentType=withdraw</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"paymentConfigId":"$.data[?(@.paymentName == 'UU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>內</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部提</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>現</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轉帳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）')].id"}</t>
+    </r>
+  </si>
+  <si>
+    <t>获取提现用户信息</t>
+  </si>
+  <si>
+    <t>/api/forex-user/user/getUserIdByForexAccount?account=${designated_withdrawal_account}</t>
+  </si>
+  <si>
+    <t>{"withdraw_userid":"$.data"}</t>
+  </si>
+  <si>
+    <t>{
+    "convertOrderVO": {
+        "amountCalcBaseOn": "exchangeAmount",
+        "balanceId": ${USDT_ID},
+        "balancePwd": "123456",
+        "coinId": ${coinId},
+        "coinSymbol": "USDT",
+        "coinType": ${coinType},
+        "convertedAmount": "function:converter",
+        "convertedBalanceId": ${TRX_ID},
+        "convertedCoinId": ${convertedCoinId},
+        "convertedCoinSymbol": "TRX",
+        "convertedCoinType": ${convertedCoinType},
+        "convertMarketId": ${convertMarketId},
+        "convertRate": "${convertRate}",
+        "convertRateExtend": "",
+        "counterpartyId": ${counterpartyId},
+        "counterpartyUserType": ${counterpartyUserType},
+        "exchangeAmount": "10",
+        "exchangeType": "convert_forex",
+        "orderType": "convert",
+        "orderTypeNext": "forex"
+    },
+    "withdrawOrderVO": {
+        "balanceId": ${TRX_ID},
+        "balancePwd": "123456",
+        "coinId": ${convertedCoinId},
+        "coinSymbol": "TRX",
+        "coinType": ${convertedCoinType},
+        "counterpartyAccount": "${designated_withdrawal_account}",
+        "counterpartyAccountType": 3,
+        "counterpartyId": ${withdraw_userid},
+        "exchangeAmount": "function:converter",
+        "exchangeType": "withdraw_forex",
+        "googleCode": "function:google_authentication",
+        "orderType": "withdraw",
+        "orderTypeNext": "forex",
+        "paymentConfigId": ${paymentConfigId}
+    }
+}</t>
+  </si>
+  <si>
+    <t>{"converter_orderid":"$.data.convertOrderId","withdraw_orderid":"$.data.withdrawOrderId","convertOrderStatus":"$.data.convertOrderStatus","withdrawOrderStatus":"$.data.withdrawOrderStatus"}</t>
+  </si>
+  <si>
+    <t>SELECT google_secret FROM `forex`.`t_user_info` WHERE `account` = '${my_account}' LIMIT 1;</t>
+  </si>
+  <si>
+    <t>后台设置提现成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://admin.innotech-stage.com/api/v1/forex-setting/order/record/updateReviewStatus</t>
+  </si>
+  <si>
+    <t>{"authorization":"${token1}"}</t>
+  </si>
+  <si>
+    <t>{"orderId":${withdraw_orderid},"userId":${my_uid},"status":4}</t>
+  </si>
+  <si>
+    <t>查看订单详情</t>
+  </si>
+  <si>
+    <t>/api/forex-exchange/order/v2/getOrderById?orderId=${withdraw_orderid}</t>
+  </si>
 </sst>
 </file>
 
@@ -176,7 +338,7 @@
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,6 +495,12 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体-简"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1152,17 +1320,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="25.4615384615385" style="2" customWidth="1"/>
     <col min="2" max="2" width="31.2307692307692" style="2" customWidth="1"/>
@@ -1170,7 +1338,7 @@
     <col min="4" max="4" width="15.3076923076923" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.69230769230769" style="2" customWidth="1"/>
-    <col min="7" max="7" width="68.9038461538462" style="2" customWidth="1"/>
+    <col min="7" max="7" width="123.394230769231" style="2" customWidth="1"/>
     <col min="8" max="8" width="31.6923076923077" style="2" customWidth="1"/>
     <col min="9" max="9" width="19.3846153846154" style="2" customWidth="1"/>
     <col min="10" max="10" width="67.625" style="3" customWidth="1"/>
@@ -1356,6 +1524,233 @@
         <v>24</v>
       </c>
     </row>
+    <row r="6" ht="409.5" spans="1:14">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" ht="34" spans="1:14">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" ht="17" spans="1:14">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" ht="34" spans="1:14">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" ht="409.5" spans="1:14">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" ht="34" spans="1:14">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/data/api_auto/uu_api/converter.xlsx
+++ b/data/api_auto/uu_api/converter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760"/>
+    <workbookView windowWidth="29120" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="76">
   <si>
     <t>case_module</t>
   </si>
@@ -119,7 +119,7 @@
     <t>/api/forex-setting/convert/getConvertByFromToCoin?fromCoinId=${coinId}&amp;toCoinId=${convertedCoinId}</t>
   </si>
   <si>
-    <t>{"decimalPrecision":"$.data.decimalPrecision","convertRate":"$.data.convertRate"}</t>
+    <t>{"decimalPrecision":"$.data.decimalPrecision","convertRate":"$.data.convertRate","precisionType":"$.data.precisionType","integerPrecision":"$.data.integerPrecision"}</t>
   </si>
   <si>
     <t>提交兑换</t>
@@ -326,6 +326,380 @@
   </si>
   <si>
     <t>/api/forex-exchange/order/v2/getOrderById?orderId=${withdraw_orderid}</t>
+  </si>
+  <si>
+    <t>三方交易对PHP兑HKD_PH</t>
+  </si>
+  <si>
+    <t>获取对应币种信息</t>
+  </si>
+  <si>
+    <t>{
+    "coinId":"$.data[?(@.fromCoinSymbol == 'PHP' &amp;&amp; @.toCoinSymbol == 'HKD_PH')].fromCoinId",
+    "convertedCoinId":"$.data[?(@.fromCoinSymbol == 'PHP' &amp;&amp; @.toCoinSymbol == 'HKD_PH')].toCoinId",
+    "convertRate":"$.data[?(@.fromCoinSymbol == 'PHP' &amp;&amp; @.toCoinSymbol == 'HKD_PH')].convertRate",
+    "counterpartyId":"$.data[?(@.fromCoinSymbol == 'PHP' &amp;&amp; @.toCoinSymbol == 'HKD_PH')].userId",
+    "counterpartyUserType":"$.data[?(@.fromCoinSymbol == 'PHP' &amp;&amp; @.toCoinSymbol == 'HKD_PH')].userType",
+    "convertMarketId":"$.data[?(@.fromCoinSymbol == 'PHP' &amp;&amp; @.toCoinSymbol == 'HKD_PH')].convertMarketId",
+    "coinType":"$.data[?(@.fromCoinSymbol == 'PHP' &amp;&amp; @.toCoinSymbol == 'HKD_PH')].coinType",
+    "convertedCoinType":"$.data[?(@.fromCoinSymbol == 'PHP' &amp;&amp; @.toCoinSymbol == 'HKD_PH')].cryptoCoinCount"
+}</t>
+  </si>
+  <si>
+    <t>获取通道信息</t>
+  </si>
+  <si>
+    <t>{"paymentConfigId":"$.data[?(@.paymentName == '手动提现通道')].id"}</t>
+  </si>
+  <si>
+    <t>获取汇率与兑换信息</t>
+  </si>
+  <si>
+    <t>进行兑换提现</t>
+  </si>
+  <si>
+    <t>{
+    "convertOrderVO": {
+        "amountCalcBaseOn": "exchangeAmount",
+        "balanceId": ${PHP_ID},
+        "balancePwd": "123456",
+        "coinId": ${coinId},
+        "coinSymbol": "PHP",
+        "coinType": ${coinType},
+        "convertedAmount": "function:converter",
+        "convertedBalanceId": ${HKD_PH_ID},
+        "convertedCoinId": ${convertedCoinId},
+        "convertedCoinSymbol": "HKD_PH",
+        "convertedCoinType": ${convertedCoinType},
+        "convertMarketId": ${convertMarketId},
+        "convertRate": "${convertRate}",
+        "convertRateExtend": "",
+        "counterpartyId": ${counterpartyId},
+        "counterpartyUserType": ${counterpartyUserType},
+        "exchangeAmount": "100",
+        "exchangeType": "convert_manual",
+        "orderType": "convert",
+        "orderTypeNext": "manual"
+    },
+    "withdrawOrderVO": {
+        "balanceId": ${HKD_PH_ID},
+        "balancePwd": "123456",
+        "exchangeAmount": "function:converter",
+        "exchangeType": "withdraw_manual",
+        "googleCode": "function:google_authentication",
+        "orderType": "withdraw",
+        "orderTypeNext": "manual",
+        "paymentConfigId": ${paymentConfigId},
+        "paymentUserCustomInfoList": [
+            {
+                "id": 2,
+                "fieldValue": "123"
+            },
+            {
+                "id": 1,
+                "fieldValue": "123"
+            }
+        ],
+        "isSaveRelateAccount": true
+    }
+}</t>
+  </si>
+  <si>
+    <t>后台设置审核通过</t>
+  </si>
+  <si>
+    <t>https://admin.innotech-stage.com/api/v1/forex-setting/order/record/updateReviewStatus</t>
+  </si>
+  <si>
+    <t>指定三方打款</t>
+  </si>
+  <si>
+    <t>https://admin.innotech-stage.com/api/v1/forex-setting/order/record/setManualOrderThirdPartyInfo</t>
+  </si>
+  <si>
+    <t>{"orderId":${withdraw_orderid},"thirdPartyInfo":"指定打款人"}</t>
+  </si>
+  <si>
+    <t>上传审核图片</t>
+  </si>
+  <si>
+    <t>https://admin.innotech-stage.com/api/v1/forex-user/public/uploadFile</t>
+  </si>
+  <si>
+    <t>/images/bg.jpg</t>
+  </si>
+  <si>
+    <t>{"image_one":"$.data"}</t>
+  </si>
+  <si>
+    <t>发送审核验证码</t>
+  </si>
+  <si>
+    <t>https://admin.innotech-stage.com/api/v1/forex-setting/sms/admin/manual/order/review/code</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{
+    "orderId": ${withdraw_orderid},
+    "reviewStep": 1,
+    "paymentUserCustomInfoList": [
+        {
+            "id": 2,
+            "fieldName": "GCash账户名1",
+            "fieldNameEn": "GCash Name",
+            "fieldDesc": "必填，可</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>輸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>入文字和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>數</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字",
+            "fieldType": "text_input",
+            "fieldValue": "asd"
+        },
+        {
+            "id": 1,
+            "fieldName": "GCash账户1",
+            "fieldNameEn": "GCash Account",
+            "fieldDesc": "必填，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>僅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>輸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>數</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字",
+            "fieldType": "number_input",
+            "fieldValue": "123"
+        }
+    ],
+    "exchangeAmount": "${amount_after_convert} HKD_PH",
+    "userAccount": "${my_account}",
+    "paymentName": "手动提现通道",
+    "orderEvidence": "${image_one}",
+    "reject": false
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>审核通过</t>
+  </si>
+  <si>
+    <t>https://admin.innotech-stage.com/api/v1/forex-setting/order/record/reviewManualOrder</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{
+    "orderId": ${withdraw_orderid},
+    "reviewStep": 1,
+    "paymentUserCustomInfoList": [
+        {
+            "id": 2,
+            "fieldName": "GCash账户名1",
+            "fieldNameEn": "GCash Name",
+            "fieldDesc": "必填，可</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>輸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>入文字和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>數</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字",
+            "fieldType": "text_input",
+            "fieldValue": "asd"
+        },
+        {
+            "id": 1,
+            "fieldName": "GCash账户1",
+            "fieldNameEn": "GCash Account",
+            "fieldDesc": "必填，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>僅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>輸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>數</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字",
+            "fieldType": "number_input",
+            "fieldValue": "123"
+        }
+    ],
+    "exchangeAmount": "${amount_after_convert} HKD_PH",
+    "userAccount": "${my_account}",
+    "paymentName": "手动提现通道",
+    "orderEvidence": "${image_one}",
+    "verifyCode": "function:extract_code",
+    "reject": false
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT content FROM `forex`.`t_notice_message_record` WHERE `receiver` = '${backend_review_email}'  ORDER BY create_time DESC  LIMIT 1;</t>
   </si>
 </sst>
 </file>
@@ -1320,14 +1694,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="I15" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1428,7 +1802,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" ht="34" spans="1:14">
+    <row r="3" ht="68" spans="1:14">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1620,7 +1994,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" ht="34" spans="1:14">
+    <row r="9" ht="68" spans="1:14">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1748,6 +2122,306 @@
         <v>22</v>
       </c>
       <c r="N12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" ht="409.5" spans="1:14">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" ht="34" spans="1:14">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" ht="68" spans="1:14">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" ht="409.5" spans="1:14">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" ht="17" spans="1:14">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" ht="17" spans="1:14">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" ht="17" spans="1:14">
+      <c r="A19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" ht="409.5" spans="1:14">
+      <c r="A20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" ht="409.5" spans="1:14">
+      <c r="A21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N21" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/data/api_auto/uu_api/converter.xlsx
+++ b/data/api_auto/uu_api/converter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29120" windowHeight="14540"/>
+    <workbookView windowHeight="16760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="98">
   <si>
     <t>case_module</t>
   </si>
@@ -106,13 +106,28 @@
     "counterpartyUserType":"$.data[?(@.fromCoinSymbol == 'USDT' &amp;&amp; @.toCoinSymbol == 'PHP')].userType",
     "convertMarketId":"$.data[?(@.fromCoinSymbol == 'USDT' &amp;&amp; @.toCoinSymbol == 'PHP')].convertMarketId",
     "coinType":"$.data[?(@.fromCoinSymbol == 'USDT' &amp;&amp; @.toCoinSymbol == 'PHP')].coinType",
-    "convertedCoinType":"$.data[?(@.fromCoinSymbol == 'USDT' &amp;&amp; @.toCoinSymbol == 'PHP')].cryptoCoinCount"
+    "convertedCoinType":"$.data[?(@.fromCoinSymbol == 'USDT' &amp;&amp; @.toCoinSymbol == 'PHP')].cryptoCoinCount","amount_set":10
 }</t>
   </si>
   <si>
     <t>{"$.success": true}</t>
   </si>
   <si>
+    <t>提前获取PHP/USDT余额</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>/api/forex-balance/balance/v2/queryBalances</t>
+  </si>
+  <si>
+    <t>{"coinSymbol":"USD"}</t>
+  </si>
+  <si>
+    <t>{ "old_amount_PHP": "$.data.fiatList[?(@.coinSymbol == 'PHP')].totalBalance","old_amount_USDT": "$.data.cryptoList[?(@.coinSymbol == 'USDT')].totalBalance"}</t>
+  </si>
+  <si>
     <t>获取配置信息</t>
   </si>
   <si>
@@ -123,9 +138,6 @@
   </si>
   <si>
     <t>提交兑换</t>
-  </si>
-  <si>
-    <t>post</t>
   </si>
   <si>
     <t>/api/forex-exchange/order/v2/convertAndWithdrawOrderCreate</t>
@@ -149,7 +161,7 @@
         "convertRateExtend": "",
         "counterpartyId": ${counterpartyId},
         "counterpartyUserType": ${counterpartyUserType},
-        "exchangeAmount": "10",
+        "exchangeAmount": "${amount_set}",
         "exchangeType": "convert_forex",
         "orderType": "convert",
         "orderTypeNext": "forex"
@@ -164,6 +176,24 @@
   </si>
   <si>
     <t>/api/forex-exchange/order/v2/getOrderById?orderId=${converter_orderid}</t>
+  </si>
+  <si>
+    <t>校验USDT余额</t>
+  </si>
+  <si>
+    <t>{ "new_amount_USDT": "$.data.cryptoList[?(@.coinSymbol == 'USDT')].totalBalance","assert_coin":"$.data.cryptoList[?(@.coinSymbol == 'USDT')].coinSymbol]"}</t>
+  </si>
+  <si>
+    <t>{"$.success": true,"$.data.cryptoList[?(@.id == ${USDT_ID})].totalBalance": "function:assert_amount_deduction"}</t>
+  </si>
+  <si>
+    <t>校验PHP余额</t>
+  </si>
+  <si>
+    <t>{ "new_amount_PHP": "$.data.fiatList[?(@.coinSymbol == 'PHP')].totalBalance","assert_coin":"$.data.fiatList[?(@.coinSymbol == 'PHP')].coinSymbol]"}</t>
+  </si>
+  <si>
+    <t>{"$.success": true,"$.data.fiatList[?(@.id == ${PHP_ID})].totalBalance": "function:assert_amount_increase"}</t>
   </si>
   <si>
     <t>UU交易兑USDT兑TRX</t>
@@ -261,6 +291,21 @@
     <t>{"withdraw_userid":"$.data"}</t>
   </si>
   <si>
+    <t>查看token2 TRX余额</t>
+  </si>
+  <si>
+    <t>{"authorization":"${token2}"}</t>
+  </si>
+  <si>
+    <t>{"old_amount_TRX": "$.data.cryptoList[?(@.coinSymbol == 'TRX')].totalBalance"}</t>
+  </si>
+  <si>
+    <t>查看USDT余额</t>
+  </si>
+  <si>
+    <t>{"old_amount_USDT": "$.data.cryptoList[?(@.coinSymbol == 'USDT')].totalBalance"}</t>
+  </si>
+  <si>
     <t>{
     "convertOrderVO": {
         "amountCalcBaseOn": "exchangeAmount",
@@ -279,7 +324,7 @@
         "convertRateExtend": "",
         "counterpartyId": ${counterpartyId},
         "counterpartyUserType": ${counterpartyUserType},
-        "exchangeAmount": "10",
+        "exchangeAmount": "${amount_set}",
         "exchangeType": "convert_forex",
         "orderType": "convert",
         "orderTypeNext": "forex"
@@ -328,6 +373,15 @@
     <t>/api/forex-exchange/order/v2/getOrderById?orderId=${withdraw_orderid}</t>
   </si>
   <si>
+    <t>校验token2 TRX余额</t>
+  </si>
+  <si>
+    <t>{ "new_amount_TRX": "$.data.cryptoList[?(@.coinSymbol == 'TRX')].totalBalance","assert_coin":"$.data.cryptoList[?(@.coinSymbol == 'TRX')].coinSymbol]"}</t>
+  </si>
+  <si>
+    <t>{"$.success": true,"$.data.cryptoList[?(@.id == ${TRX_ID})].totalBalance": "function:assert_amount_increase"}</t>
+  </si>
+  <si>
     <t>三方交易对PHP兑HKD_PH</t>
   </si>
   <si>
@@ -352,7 +406,16 @@
     <t>{"paymentConfigId":"$.data[?(@.paymentName == '手动提现通道')].id"}</t>
   </si>
   <si>
+    <t>获取PHP余额</t>
+  </si>
+  <si>
+    <t>{ "old_amount_PHP": "$.data.fiatList[?(@.coinSymbol == 'PHP')].totalBalance"}</t>
+  </si>
+  <si>
     <t>获取汇率与兑换信息</t>
+  </si>
+  <si>
+    <t>{"decimalPrecision":"$.data.decimalPrecision","convertRate":"$.data.convertRate","precisionType":"$.data.precisionType","integerPrecision":"$.data.integerPrecision","amount_set":100}</t>
   </si>
   <si>
     <t>进行兑换提现</t>
@@ -376,7 +439,7 @@
         "convertRateExtend": "",
         "counterpartyId": ${counterpartyId},
         "counterpartyUserType": ${counterpartyUserType},
-        "exchangeAmount": "100",
+        "exchangeAmount": "${amount_set}",
         "exchangeType": "convert_manual",
         "orderType": "convert",
         "orderTypeNext": "manual"
@@ -700,6 +763,9 @@
   </si>
   <si>
     <t>SELECT content FROM `forex`.`t_notice_message_record` WHERE `receiver` = '${backend_review_email}'  ORDER BY create_time DESC  LIMIT 1;</t>
+  </si>
+  <si>
+    <t>{"$.success": true,"$.data.fiatList[?(@.id == ${PHP_ID})].totalBalance": "function:assert_amount_deduction"}</t>
   </si>
 </sst>
 </file>
@@ -1694,22 +1760,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="I15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="I21" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="25.4615384615385" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.2307692307692" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.1538461538462" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.3076923076923" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.2307692307692" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.4615384615385" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.1057692307692" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.6538461538462" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.69230769230769" style="2" customWidth="1"/>
     <col min="7" max="7" width="123.394230769231" style="2" customWidth="1"/>
@@ -1802,7 +1868,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" ht="68" spans="1:14">
+    <row r="3" s="2" customFormat="1" ht="84" spans="1:14">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1816,10 +1882,10 @@
         <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>21</v>
@@ -1827,14 +1893,18 @@
       <c r="I3" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="J3" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="L3" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="M3" s="3"/>
       <c r="N3" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" ht="404" spans="1:14">
+    <row r="4" ht="68" spans="1:14">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1845,13 +1915,13 @@
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>21</v>
@@ -1859,9 +1929,6 @@
       <c r="I4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="L4" s="3" t="s">
         <v>32</v>
       </c>
@@ -1869,7 +1936,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" ht="404" spans="1:14">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1883,7 +1950,7 @@
         <v>33</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>34</v>
@@ -1894,28 +1961,34 @@
       <c r="I5" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="J5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="N5" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" ht="409.5" spans="1:14">
+    <row r="6" spans="1:14">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>21</v>
@@ -1923,31 +1996,28 @@
       <c r="I6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="N6" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" ht="34" spans="1:14">
+    <row r="7" s="2" customFormat="1" ht="84" spans="1:14">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>21</v>
@@ -1955,31 +2025,35 @@
       <c r="I7" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="J7" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="L7" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="M7" s="3"/>
       <c r="N7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" ht="17" spans="1:14">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="84" spans="1:14">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>21</v>
@@ -1987,31 +2061,35 @@
       <c r="I8" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="J8" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="L8" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="M8" s="3"/>
       <c r="N8" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" ht="68" spans="1:14">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" ht="409.5" spans="1:14">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>21</v>
@@ -2020,30 +2098,30 @@
         <v>22</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" ht="409.5" spans="1:14">
+    <row r="10" ht="34" spans="1:14">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>21</v>
@@ -2051,98 +2129,99 @@
       <c r="I10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="L10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" ht="34" spans="1:14">
+    <row r="11" ht="17" spans="1:14">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>47</v>
+        <v>19</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>49</v>
+      <c r="L11" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" s="2" customFormat="1" ht="51" spans="1:14">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="J12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M12" s="3"/>
       <c r="N12" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" ht="409.5" spans="1:14">
+    <row r="13" s="2" customFormat="1" ht="51" spans="1:14">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>21</v>
@@ -2150,31 +2229,35 @@
       <c r="I13" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="J13" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="L13" s="3" t="s">
-        <v>54</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="M13" s="3"/>
       <c r="N13" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" ht="34" spans="1:14">
+    <row r="14" ht="68" spans="1:14">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>21</v>
@@ -2183,30 +2266,30 @@
         <v>22</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" ht="68" spans="1:14">
+    <row r="15" ht="409.5" spans="1:14">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>21</v>
@@ -2214,148 +2297,150 @@
       <c r="I15" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="J15" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="L15" s="3" t="s">
-        <v>27</v>
+        <v>59</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" ht="409.5" spans="1:14">
+    <row r="16" ht="34" spans="1:14">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" ht="17" spans="1:14">
+    <row r="17" spans="1:14">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="N17" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" ht="17" spans="1:14">
+    <row r="18" s="2" customFormat="1" ht="84" spans="1:14">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>64</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M18" s="3"/>
       <c r="N18" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" ht="17" spans="1:14">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="84" spans="1:14">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>67</v>
+      <c r="J19" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>68</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="M19" s="3"/>
       <c r="N19" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" ht="409.5" spans="1:14">
@@ -2363,66 +2448,371 @@
         <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>71</v>
+      <c r="L20" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" ht="409.5" spans="1:14">
+    <row r="21" ht="34" spans="1:14">
       <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="51" spans="1:14">
+      <c r="A22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" ht="84" spans="1:14">
+      <c r="A23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" ht="409.5" spans="1:14">
+      <c r="A24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" ht="17" spans="1:14">
+      <c r="A25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" ht="17" spans="1:14">
+      <c r="A26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" ht="17" spans="1:14">
+      <c r="A27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" ht="409.5" spans="1:14">
+      <c r="A28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" ht="409.5" spans="1:14">
+      <c r="A29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" ht="84" spans="1:14">
+      <c r="A30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M30" s="3"/>
+      <c r="N30" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/data/api_auto/uu_api/converter.xlsx
+++ b/data/api_auto/uu_api/converter.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="100">
   <si>
     <t>case_module</t>
   </si>
@@ -184,16 +184,16 @@
     <t>{ "new_amount_USDT": "$.data.cryptoList[?(@.coinSymbol == 'USDT')].totalBalance","assert_coin":"$.data.cryptoList[?(@.coinSymbol == 'USDT')].coinSymbol]"}</t>
   </si>
   <si>
-    <t>{"$.success": true,"$.data.cryptoList[?(@.id == ${USDT_ID})].totalBalance": "function:assert_amount_deduction"}</t>
+    <t>{"$.success": true,"$.data.cryptoList[?(@.coinSymbol == 'USDT')].totalBalance": "function:assert_amount_deduction"}</t>
   </si>
   <si>
     <t>校验PHP余额</t>
   </si>
   <si>
-    <t>{ "new_amount_PHP": "$.data.fiatList[?(@.coinSymbol == 'PHP')].totalBalance","assert_coin":"$.data.fiatList[?(@.coinSymbol == 'PHP')].coinSymbol]"}</t>
-  </si>
-  <si>
-    <t>{"$.success": true,"$.data.fiatList[?(@.id == ${PHP_ID})].totalBalance": "function:assert_amount_increase"}</t>
+    <t>{ "new_amount_PHP": "$.data.fiatList[?(@.coinSymbol == 'PHP')].totalBalance","assert_coin":"$.data.fiatList[?(@.coinSymbol == 'PHP')].coinSymbol]","assert_amount_type":3}</t>
+  </si>
+  <si>
+    <t>{"$.success": true,"$.data.fiatList[?(@.coinSymbol == 'PHP')].totalBalance": "function:assert_amount_increase"}</t>
   </si>
   <si>
     <t>UU交易兑USDT兑TRX</t>
@@ -278,7 +278,115 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>）')].id"}</t>
+      <t>）')].id","accuracy":"$.data[?(@.paymentName == 'UU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>內</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部提</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>現</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轉帳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）')].accuracy","fee_amount":"$.data[?(@.paymentName == 'UU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>內</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部提</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>現</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轉帳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）')].feeNum"}</t>
     </r>
   </si>
   <si>
@@ -376,10 +484,13 @@
     <t>校验token2 TRX余额</t>
   </si>
   <si>
-    <t>{ "new_amount_TRX": "$.data.cryptoList[?(@.coinSymbol == 'TRX')].totalBalance","assert_coin":"$.data.cryptoList[?(@.coinSymbol == 'TRX')].coinSymbol]"}</t>
-  </si>
-  <si>
-    <t>{"$.success": true,"$.data.cryptoList[?(@.id == ${TRX_ID})].totalBalance": "function:assert_amount_increase"}</t>
+    <t>{ "new_amount_TRX": "$.data.cryptoList[?(@.coinSymbol == 'TRX')].totalBalance","assert_coin":"$.data.cryptoList[?(@.coinSymbol == 'TRX')].coinSymbol]","assert_amount_type":2}</t>
+  </si>
+  <si>
+    <t>{"$.success": true,"$.data.cryptoList[?(@.coinSymbol == 'TRX')].totalBalance": "function:assert_amount_increase"}</t>
+  </si>
+  <si>
+    <t>{ "new_amount_USDT": "$.data.cryptoList[?(@.coinSymbol == 'USDT')].totalBalance","assert_coin":"$.data.cryptoList[?(@.coinSymbol == 'USDT')].coinSymbol]","assert_amount_type":"converter"}</t>
   </si>
   <si>
     <t>三方交易对PHP兑HKD_PH</t>
@@ -403,7 +514,123 @@
     <t>获取通道信息</t>
   </si>
   <si>
-    <t>{"paymentConfigId":"$.data[?(@.paymentName == '手动提现通道')].id"}</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"paymentConfigId":"$.data[?(@.paymentName == '手动提现通道')].id","accuracy":"$.data[?(@.paymentName == 'UU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>內</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部提</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>現</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轉帳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）')].accuracy","fee_amount":"$.data[?(@.paymentName == 'UU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>內</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部提</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>現</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轉帳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）')].feeNum"}</t>
+    </r>
   </si>
   <si>
     <t>获取PHP余额</t>
@@ -765,7 +992,10 @@
     <t>SELECT content FROM `forex`.`t_notice_message_record` WHERE `receiver` = '${backend_review_email}'  ORDER BY create_time DESC  LIMIT 1;</t>
   </si>
   <si>
-    <t>{"$.success": true,"$.data.fiatList[?(@.id == ${PHP_ID})].totalBalance": "function:assert_amount_deduction"}</t>
+    <t>{ "new_amount_PHP": "$.data.fiatList[?(@.coinSymbol == 'PHP')].totalBalance","assert_coin":"$.data.fiatList[?(@.coinSymbol == 'PHP')].coinSymbol]"}</t>
+  </si>
+  <si>
+    <t>{"$.success": true,"$.data.fiatList[?(@.coinSymbol == 'PHP')].totalBalance": "function:assert_amount_deduction"}</t>
   </si>
 </sst>
 </file>
@@ -1763,11 +1993,11 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="I21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J24" sqref="J24"/>
+      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2036,7 +2266,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="84" spans="1:14">
+    <row r="8" s="2" customFormat="1" ht="101" spans="1:14">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -2104,7 +2334,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" ht="34" spans="1:14">
+    <row r="10" ht="118" spans="1:14">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -2371,7 +2601,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" ht="84" spans="1:14">
+    <row r="18" s="2" customFormat="1" ht="101" spans="1:14">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -2407,7 +2637,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" ht="84" spans="1:14">
+    <row r="19" s="2" customFormat="1" ht="101" spans="1:14">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
@@ -2436,7 +2666,7 @@
         <v>28</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="2" t="s">
@@ -2448,13 +2678,13 @@
         <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>19</v>
@@ -2469,24 +2699,24 @@
         <v>22</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" ht="34" spans="1:14">
+    <row r="21" ht="118" spans="1:14">
       <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>19</v>
@@ -2501,7 +2731,7 @@
         <v>22</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>24</v>
@@ -2512,13 +2742,13 @@
         <v>15</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>26</v>
@@ -2536,7 +2766,7 @@
         <v>28</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="2" t="s">
@@ -2548,13 +2778,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>19</v>
@@ -2569,7 +2799,7 @@
         <v>22</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>24</v>
@@ -2580,13 +2810,13 @@
         <v>15</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>26</v>
@@ -2601,7 +2831,7 @@
         <v>22</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>59</v>
@@ -2618,19 +2848,19 @@
         <v>15</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>63</v>
@@ -2650,19 +2880,19 @@
         <v>15</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>63</v>
@@ -2671,7 +2901,7 @@
         <v>22</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>24</v>
@@ -2682,19 +2912,19 @@
         <v>15</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>63</v>
@@ -2703,10 +2933,10 @@
         <v>22</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>24</v>
@@ -2717,19 +2947,19 @@
         <v>15</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>63</v>
@@ -2738,7 +2968,7 @@
         <v>22</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>24</v>
@@ -2749,19 +2979,19 @@
         <v>15</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>63</v>
@@ -2770,10 +3000,10 @@
         <v>22</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>24</v>
@@ -2784,7 +3014,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>17</v>
@@ -2808,11 +3038,11 @@
         <v>28</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="M30" s="3"/>
       <c r="N30" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/data/api_auto/uu_api/converter.xlsx
+++ b/data/api_auto/uu_api/converter.xlsx
@@ -484,7 +484,7 @@
     <t>校验token2 TRX余额</t>
   </si>
   <si>
-    <t>{ "new_amount_TRX": "$.data.cryptoList[?(@.coinSymbol == 'TRX')].totalBalance","assert_coin":"$.data.cryptoList[?(@.coinSymbol == 'TRX')].coinSymbol]","assert_amount_type":2}</t>
+    <t>{ "new_amount_TRX": "$.data.cryptoList[?(@.coinSymbol == 'TRX')].totalBalance","assert_coin":"$.data.cryptoList[?(@.coinSymbol == 'TRX')].coinSymbol]","assert_amount_type":3}</t>
   </si>
   <si>
     <t>{"$.success": true,"$.data.cryptoList[?(@.coinSymbol == 'TRX')].totalBalance": "function:assert_amount_increase"}</t>
@@ -1993,11 +1993,11 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="H14" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
